--- a/results/mp/tinybert/home-spam/confidence/168/stop-words-topk-masking-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/168/stop-words-topk-masking-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="117">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,21 +49,24 @@
     <t>useless</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>stopped</t>
   </si>
   <si>
-    <t>disappointed</t>
+    <t>poor</t>
   </si>
   <si>
     <t>returned</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
     <t>however</t>
   </si>
   <si>
+    <t>broken</t>
+  </si>
+  <si>
     <t>broke</t>
   </si>
   <si>
@@ -88,259 +91,265 @@
     <t>best</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>amazing</t>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>great</t>
   </si>
   <si>
     <t>salad</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>daughter</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>happy</t>
   </si>
   <si>
     <t>family</t>
   </si>
   <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
     <t>cakes</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>husband</t>
   </si>
   <si>
     <t>perfectly</t>
   </si>
   <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>glad</t>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>cooking</t>
   </si>
   <si>
     <t>bread</t>
   </si>
   <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>cooke</t>
+    <t>rice</t>
   </si>
   <si>
     <t>comfortable</t>
   </si>
   <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
     <t>gift</t>
   </si>
   <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>potatoes</t>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>cooks</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>nicely</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>baking</t>
+  </si>
+  <si>
+    <t>popcorn</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>works</t>
   </si>
   <si>
     <t>cream</t>
   </si>
   <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>nicely</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>cooks</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>popcorn</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>day</t>
   </si>
   <si>
-    <t>simple</t>
+    <t>always</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>fan</t>
   </si>
   <si>
     <t>highly</t>
   </si>
   <si>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>cook</t>
   </si>
   <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>works</t>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>make</t>
   </si>
   <si>
     <t>gr</t>
   </si>
   <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>ice</t>
+    <t>big</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>also</t>
   </si>
   <si>
     <t>makes</t>
   </si>
   <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>make</t>
+    <t>little</t>
+  </si>
+  <si>
+    <t>cup</t>
   </si>
   <si>
     <t>bought</t>
   </si>
   <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>dish</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>cup</t>
+    <t>job</t>
   </si>
   <si>
     <t>hot</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>big</t>
-  </si>
-  <si>
     <t>really</t>
   </si>
   <si>
-    <t>also</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>long</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>job</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
+    <t>time</t>
+  </si>
+  <si>
     <t>use</t>
   </si>
   <si>
-    <t>time</t>
+    <t>much</t>
   </si>
   <si>
     <t>made</t>
@@ -713,7 +722,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q96"/>
+  <dimension ref="A1:Q98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -721,10 +730,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -782,13 +791,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8275862068965517</v>
+        <v>0.9310344827586207</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -800,19 +809,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K3">
-        <v>0.967741935483871</v>
+        <v>0.956989247311828</v>
       </c>
       <c r="L3">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M3">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -824,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -832,13 +841,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7407407407407407</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -850,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K4">
         <v>0.890625</v>
@@ -882,13 +891,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.575</v>
+        <v>0.6</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -900,19 +909,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K5">
-        <v>0.8653250773993808</v>
+        <v>0.8699690402476781</v>
       </c>
       <c r="L5">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="M5">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -924,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -932,13 +941,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4150943396226415</v>
+        <v>0.4418604651162791</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -950,19 +959,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K6">
-        <v>0.855072463768116</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L6">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M6">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -974,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -982,13 +991,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4108527131782946</v>
+        <v>0.4339622641509434</v>
       </c>
       <c r="C7">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1000,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K7">
-        <v>0.7359307359307359</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L7">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M7">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1024,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1032,13 +1041,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3737373737373738</v>
+        <v>0.4</v>
       </c>
       <c r="C8">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1050,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K8">
-        <v>0.7288135593220338</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="L8">
-        <v>215</v>
+        <v>21</v>
       </c>
       <c r="M8">
-        <v>215</v>
+        <v>21</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1074,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>80</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1082,13 +1091,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.34</v>
+        <v>0.3737373737373738</v>
       </c>
       <c r="C9">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D9">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1100,19 +1109,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K9">
-        <v>0.7272727272727273</v>
+        <v>0.7186440677966102</v>
       </c>
       <c r="L9">
-        <v>56</v>
+        <v>212</v>
       </c>
       <c r="M9">
-        <v>56</v>
+        <v>212</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1124,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>21</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1132,13 +1141,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3205128205128205</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C10">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1150,19 +1159,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K10">
-        <v>0.7241379310344828</v>
+        <v>0.7173913043478261</v>
       </c>
       <c r="L10">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="M10">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1174,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1182,13 +1191,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1297297297297297</v>
+        <v>0.1888888888888889</v>
       </c>
       <c r="C11">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D11">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1200,19 +1209,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>161</v>
+        <v>73</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K11">
-        <v>0.6986301369863014</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="L11">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="M11">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1224,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1232,63 +1241,87 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.08717948717948718</v>
+        <v>0.1567567567567568</v>
       </c>
       <c r="C12">
+        <v>29</v>
+      </c>
+      <c r="D12">
+        <v>29</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>156</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12">
+        <v>0.704225352112676</v>
+      </c>
+      <c r="L12">
+        <v>50</v>
+      </c>
+      <c r="M12">
+        <v>50</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>0.08247422680412371</v>
+      </c>
+      <c r="C13">
+        <v>16</v>
+      </c>
+      <c r="D13">
         <v>17</v>
       </c>
-      <c r="D12">
-        <v>17</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
+      <c r="E13">
+        <v>0.06</v>
+      </c>
+      <c r="F13">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13">
         <v>178</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12">
-        <v>0.6956521739130435</v>
-      </c>
-      <c r="L12">
-        <v>32</v>
-      </c>
-      <c r="M12">
-        <v>32</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K13">
-        <v>0.6714285714285714</v>
+        <v>0.6883116883116883</v>
       </c>
       <c r="L13">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="M13">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1300,21 +1333,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K14">
-        <v>0.6412520064205457</v>
+        <v>0.6590909090909091</v>
       </c>
       <c r="L14">
-        <v>799</v>
+        <v>29</v>
       </c>
       <c r="M14">
-        <v>799</v>
+        <v>29</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1326,21 +1359,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>447</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K15">
-        <v>0.6363636363636364</v>
+        <v>0.6452648475120385</v>
       </c>
       <c r="L15">
-        <v>28</v>
+        <v>804</v>
       </c>
       <c r="M15">
-        <v>28</v>
+        <v>804</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1352,21 +1385,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>16</v>
+        <v>442</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K16">
-        <v>0.6338028169014085</v>
+        <v>0.6438356164383562</v>
       </c>
       <c r="L16">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M16">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1383,16 +1416,16 @@
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K17">
-        <v>0.6222222222222222</v>
+        <v>0.6142857142857143</v>
       </c>
       <c r="L17">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="M17">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1404,21 +1437,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K18">
-        <v>0.6153846153846154</v>
+        <v>0.6057142857142858</v>
       </c>
       <c r="L18">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="M18">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1430,21 +1463,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>25</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K19">
-        <v>0.609375</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L19">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M19">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1456,21 +1489,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K20">
-        <v>0.6057142857142858</v>
+        <v>0.5673076923076923</v>
       </c>
       <c r="L20">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="M20">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1482,21 +1515,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>69</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K21">
-        <v>0.5921052631578947</v>
+        <v>0.5625</v>
       </c>
       <c r="L21">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="M21">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1508,21 +1541,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K22">
+        <v>0.5588235294117647</v>
+      </c>
+      <c r="L22">
         <v>38</v>
       </c>
-      <c r="K22">
-        <v>0.5480769230769231</v>
-      </c>
-      <c r="L22">
-        <v>57</v>
-      </c>
       <c r="M22">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1534,21 +1567,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K23">
-        <v>0.5441176470588235</v>
+        <v>0.546875</v>
       </c>
       <c r="L23">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M23">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1560,21 +1593,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K24">
-        <v>0.5329341317365269</v>
+        <v>0.5301204819277109</v>
       </c>
       <c r="L24">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="M24">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1586,21 +1619,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>78</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K25">
-        <v>0.5208333333333334</v>
+        <v>0.5269461077844312</v>
       </c>
       <c r="L25">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="M25">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1612,21 +1645,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>23</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K26">
-        <v>0.52</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="L26">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="M26">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1638,21 +1671,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K27">
-        <v>0.5180722891566265</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="L27">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="M27">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1664,21 +1697,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K28">
-        <v>0.5042735042735043</v>
+        <v>0.4605263157894737</v>
       </c>
       <c r="L28">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="M28">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1690,21 +1723,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>58</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K29">
-        <v>0.4918032786885246</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L29">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M29">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1716,21 +1749,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K30">
-        <v>0.4736842105263158</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L30">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M30">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1742,21 +1775,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K31">
-        <v>0.4722222222222222</v>
+        <v>0.443609022556391</v>
       </c>
       <c r="L31">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="M31">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1768,21 +1801,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>38</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K32">
-        <v>0.4518072289156627</v>
+        <v>0.4414414414414414</v>
       </c>
       <c r="L32">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="M32">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1794,21 +1827,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>91</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K33">
-        <v>0.4285714285714285</v>
+        <v>0.44</v>
       </c>
       <c r="L33">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="M33">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1820,21 +1853,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K34">
-        <v>0.4126984126984127</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="L34">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M34">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1846,21 +1879,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K35">
-        <v>0.3970588235294117</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="L35">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M35">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1872,21 +1905,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K36">
-        <v>0.3852140077821012</v>
+        <v>0.4216867469879518</v>
       </c>
       <c r="L36">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="M36">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1898,21 +1931,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>158</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K37">
-        <v>0.3848039215686275</v>
+        <v>0.4</v>
       </c>
       <c r="L37">
-        <v>157</v>
+        <v>26</v>
       </c>
       <c r="M37">
-        <v>157</v>
+        <v>26</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1924,21 +1957,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>251</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K38">
-        <v>0.3725490196078431</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L38">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M38">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1950,21 +1983,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K39">
-        <v>0.3692307692307693</v>
+        <v>0.382716049382716</v>
       </c>
       <c r="L39">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="M39">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1976,21 +2009,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K40">
-        <v>0.3571428571428572</v>
+        <v>0.3774509803921569</v>
       </c>
       <c r="L40">
-        <v>20</v>
+        <v>154</v>
       </c>
       <c r="M40">
-        <v>20</v>
+        <v>154</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2002,21 +2035,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>36</v>
+        <v>254</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K41">
-        <v>0.3315068493150685</v>
+        <v>0.3673469387755102</v>
       </c>
       <c r="L41">
-        <v>242</v>
+        <v>18</v>
       </c>
       <c r="M41">
-        <v>242</v>
+        <v>18</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2028,21 +2061,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>488</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K42">
-        <v>0.3308270676691729</v>
+        <v>0.3657587548638132</v>
       </c>
       <c r="L42">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="M42">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2054,21 +2087,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>89</v>
+        <v>163</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K43">
-        <v>0.3265306122448979</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="L43">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M43">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2080,21 +2113,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K44">
-        <v>0.3265306122448979</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="L44">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M44">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2106,21 +2139,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K45">
-        <v>0.3253588516746411</v>
+        <v>0.3397260273972603</v>
       </c>
       <c r="L45">
-        <v>68</v>
+        <v>248</v>
       </c>
       <c r="M45">
-        <v>68</v>
+        <v>248</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2132,21 +2165,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>141</v>
+        <v>482</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K46">
-        <v>0.3153153153153153</v>
+        <v>0.3309352517985611</v>
       </c>
       <c r="L46">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="M46">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2158,21 +2191,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>76</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K47">
-        <v>0.3026315789473684</v>
+        <v>0.3166666666666667</v>
       </c>
       <c r="L47">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M47">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2184,21 +2217,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K48">
-        <v>0.302158273381295</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="L48">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="M48">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2210,21 +2243,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>97</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K49">
+        <v>0.3110047846889952</v>
+      </c>
+      <c r="L49">
         <v>65</v>
       </c>
-      <c r="K49">
-        <v>0.2932330827067669</v>
-      </c>
-      <c r="L49">
-        <v>39</v>
-      </c>
       <c r="M49">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2236,21 +2269,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>94</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K50">
-        <v>0.2909090909090909</v>
+        <v>0.3061224489795918</v>
       </c>
       <c r="L50">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M50">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2262,21 +2295,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K51">
-        <v>0.2741935483870968</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L51">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="M51">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2288,21 +2321,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>45</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K52">
-        <v>0.2716049382716049</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="L52">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="M52">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2314,21 +2347,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K53">
-        <v>0.271523178807947</v>
+        <v>0.2658772874058127</v>
       </c>
       <c r="L53">
-        <v>41</v>
+        <v>247</v>
       </c>
       <c r="M53">
-        <v>41</v>
+        <v>247</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2340,21 +2373,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>110</v>
+        <v>682</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K54">
-        <v>0.2561894510226049</v>
+        <v>0.2582781456953642</v>
       </c>
       <c r="L54">
-        <v>238</v>
+        <v>39</v>
       </c>
       <c r="M54">
-        <v>238</v>
+        <v>39</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2366,21 +2399,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>691</v>
+        <v>112</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K55">
-        <v>0.2475247524752475</v>
+        <v>0.2437086092715232</v>
       </c>
       <c r="L55">
-        <v>25</v>
+        <v>184</v>
       </c>
       <c r="M55">
-        <v>25</v>
+        <v>184</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2392,21 +2425,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>76</v>
+        <v>571</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K56">
-        <v>0.2361111111111111</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="L56">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M56">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2418,21 +2451,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K57">
-        <v>0.2342342342342342</v>
+        <v>0.2277227722772277</v>
       </c>
       <c r="L57">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M57">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2444,21 +2477,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K58">
-        <v>0.2314814814814815</v>
+        <v>0.2261904761904762</v>
       </c>
       <c r="L58">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M58">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2470,21 +2503,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>83</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K59">
-        <v>0.2261904761904762</v>
+        <v>0.213166144200627</v>
       </c>
       <c r="L59">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="M59">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2496,21 +2529,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>65</v>
+        <v>251</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K60">
-        <v>0.2199488491048593</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="L60">
-        <v>172</v>
+        <v>15</v>
       </c>
       <c r="M60">
-        <v>172</v>
+        <v>15</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2522,30 +2555,30 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>610</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K61">
-        <v>0.2142857142857143</v>
+        <v>0.2072072072072072</v>
       </c>
       <c r="L61">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M61">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N61">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O61">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
         <v>88</v>
@@ -2553,42 +2586,42 @@
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K62">
-        <v>0.213166144200627</v>
+        <v>0.1964285714285714</v>
       </c>
       <c r="L62">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="M62">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="N62">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O62">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62">
-        <v>251</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K63">
-        <v>0.209271523178808</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="L63">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="M63">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2600,21 +2633,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>597</v>
+        <v>629</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K64">
-        <v>0.1904761904761905</v>
+        <v>0.1879194630872483</v>
       </c>
       <c r="L64">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M64">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2626,21 +2659,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>85</v>
+        <v>121</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K65">
-        <v>0.1754385964912281</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="L65">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="M65">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2652,47 +2685,47 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>376</v>
+        <v>88</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K66">
-        <v>0.1677852348993289</v>
+        <v>0.1756756756756757</v>
       </c>
       <c r="L66">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="M66">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O66">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q66">
-        <v>124</v>
+        <v>305</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K67">
-        <v>0.1670644391408115</v>
+        <v>0.1721311475409836</v>
       </c>
       <c r="L67">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="M67">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2704,12 +2737,12 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>349</v>
+        <v>101</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K68">
         <v>0.1630434782608696</v>
@@ -2735,16 +2768,16 @@
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K69">
-        <v>0.1623616236162362</v>
+        <v>0.1551312649164678</v>
       </c>
       <c r="L69">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="M69">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2756,21 +2789,21 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>227</v>
+        <v>354</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K70">
-        <v>0.1536388140161725</v>
+        <v>0.1524390243902439</v>
       </c>
       <c r="L70">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="M70">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2782,21 +2815,21 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>314</v>
+        <v>139</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K71">
-        <v>0.1518518518518518</v>
+        <v>0.1513157894736842</v>
       </c>
       <c r="L71">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M71">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2808,21 +2841,21 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>229</v>
+        <v>387</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K72">
-        <v>0.1508515815085158</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="L72">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="M72">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2834,21 +2867,21 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>349</v>
+        <v>230</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K73">
-        <v>0.1452991452991453</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L73">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M73">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2860,21 +2893,21 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K74">
-        <v>0.1412429378531073</v>
+        <v>0.1393939393939394</v>
       </c>
       <c r="L74">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M74">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2886,21 +2919,21 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K75">
-        <v>0.1402439024390244</v>
+        <v>0.1386363636363636</v>
       </c>
       <c r="L75">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="M75">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2912,15 +2945,15 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>141</v>
+        <v>379</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K76">
-        <v>0.1376146788990826</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="L76">
         <v>15</v>
@@ -2938,21 +2971,21 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K77">
-        <v>0.1363636363636364</v>
+        <v>0.126984126984127</v>
       </c>
       <c r="L77">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="M77">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -2964,15 +2997,15 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>380</v>
+        <v>110</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K78">
-        <v>0.1349693251533742</v>
+        <v>0.1242937853107345</v>
       </c>
       <c r="L78">
         <v>22</v>
@@ -2990,21 +3023,21 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>141</v>
+        <v>155</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K79">
-        <v>0.1311475409836066</v>
+        <v>0.1226993865030675</v>
       </c>
       <c r="L79">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M79">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -3016,21 +3049,21 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>106</v>
+        <v>143</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K80">
-        <v>0.1282051282051282</v>
+        <v>0.1182266009852217</v>
       </c>
       <c r="L80">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M80">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -3042,21 +3075,21 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>136</v>
+        <v>179</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K81">
-        <v>0.1218487394957983</v>
+        <v>0.1143911439114391</v>
       </c>
       <c r="L81">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M81">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -3068,21 +3101,21 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>209</v>
+        <v>240</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K82">
-        <v>0.1030927835051546</v>
+        <v>0.1099656357388316</v>
       </c>
       <c r="L82">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M82">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -3094,21 +3127,21 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K83">
-        <v>0.09696969696969697</v>
+        <v>0.108974358974359</v>
       </c>
       <c r="L83">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M83">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -3120,47 +3153,47 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K84">
-        <v>0.09562841530054644</v>
+        <v>0.1024390243902439</v>
       </c>
       <c r="L84">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="M84">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="N84">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O84">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q84">
-        <v>331</v>
+        <v>368</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K85">
-        <v>0.09359605911330049</v>
+        <v>0.08870967741935484</v>
       </c>
       <c r="L85">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M85">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -3172,47 +3205,47 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>184</v>
+        <v>226</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K86">
-        <v>0.07563025210084033</v>
+        <v>0.08860759493670886</v>
       </c>
       <c r="L86">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="M86">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="N86">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="O86">
-        <v>0.01000000000000001</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P86" t="b">
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>990</v>
+        <v>216</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K87">
-        <v>0.07211538461538461</v>
+        <v>0.08743169398907104</v>
       </c>
       <c r="L87">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="M87">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="N87">
         <v>1</v>
@@ -3224,125 +3257,125 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>193</v>
+        <v>334</v>
       </c>
     </row>
     <row r="88" spans="10:17">
       <c r="J88" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K88">
-        <v>0.0703012912482066</v>
+        <v>0.08582089552238806</v>
       </c>
       <c r="L88">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="M88">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="N88">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O88">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q88">
-        <v>648</v>
+        <v>980</v>
       </c>
     </row>
     <row r="89" spans="10:17">
       <c r="J89" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K89">
-        <v>0.06451612903225806</v>
+        <v>0.08177905308464849</v>
       </c>
       <c r="L89">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="M89">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="N89">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O89">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q89">
-        <v>232</v>
+        <v>640</v>
       </c>
     </row>
     <row r="90" spans="10:17">
       <c r="J90" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K90">
-        <v>0.0625</v>
+        <v>0.07729468599033816</v>
       </c>
       <c r="L90">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M90">
         <v>17</v>
       </c>
       <c r="N90">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O90">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q90">
-        <v>255</v>
+        <v>191</v>
       </c>
     </row>
     <row r="91" spans="10:17">
       <c r="J91" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K91">
-        <v>0.06157849089332177</v>
+        <v>0.06617647058823529</v>
       </c>
       <c r="L91">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="M91">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="N91">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O91">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q91">
-        <v>1082</v>
+        <v>254</v>
       </c>
     </row>
     <row r="92" spans="10:17">
       <c r="J92" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K92">
-        <v>0.06088560885608856</v>
+        <v>0.06273062730627306</v>
       </c>
       <c r="L92">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M92">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N92">
         <v>1</v>
@@ -3354,111 +3387,163 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="93" spans="10:17">
       <c r="J93" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K93">
-        <v>0.0412621359223301</v>
+        <v>0.05367965367965368</v>
       </c>
       <c r="L93">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="M93">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="N93">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="O93">
-        <v>0.11</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P93" t="b">
         <v>1</v>
       </c>
       <c r="Q93">
-        <v>395</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="94" spans="10:17">
       <c r="J94" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K94">
-        <v>0.04060913705583756</v>
+        <v>0.04945054945054945</v>
       </c>
       <c r="L94">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M94">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N94">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O94">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q94">
-        <v>378</v>
+        <v>346</v>
       </c>
     </row>
     <row r="95" spans="10:17">
       <c r="J95" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K95">
-        <v>0.036468330134357</v>
+        <v>0.04854368932038835</v>
       </c>
       <c r="L95">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M95">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N95">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="O95">
-        <v>0.05000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P95" t="b">
         <v>1</v>
       </c>
       <c r="Q95">
-        <v>502</v>
+        <v>392</v>
       </c>
     </row>
     <row r="96" spans="10:17">
       <c r="J96" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K96">
-        <v>0.02102496714848883</v>
+        <v>0.04822335025380711</v>
       </c>
       <c r="L96">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M96">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N96">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="O96">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="P96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q96">
-        <v>745</v>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="97" spans="10:17">
+      <c r="J97" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K97">
+        <v>0.04816955684007707</v>
+      </c>
+      <c r="L97">
+        <v>25</v>
+      </c>
+      <c r="M97">
+        <v>28</v>
+      </c>
+      <c r="N97">
+        <v>0.89</v>
+      </c>
+      <c r="O97">
+        <v>0.11</v>
+      </c>
+      <c r="P97" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q97">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="98" spans="10:17">
+      <c r="J98" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K98">
+        <v>0.02770448548812665</v>
+      </c>
+      <c r="L98">
+        <v>21</v>
+      </c>
+      <c r="M98">
+        <v>30</v>
+      </c>
+      <c r="N98">
+        <v>0.7</v>
+      </c>
+      <c r="O98">
+        <v>0.3</v>
+      </c>
+      <c r="P98" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q98">
+        <v>737</v>
       </c>
     </row>
   </sheetData>
